--- a/biology/Zoologie/Damon_variegatus/Damon_variegatus.xlsx
+++ b/biology/Zoologie/Damon_variegatus/Damon_variegatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Damon variegatus est une espèce d'amblypyges de la famille des Phrynichidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Namibie, au Botswana, au Zimbabwe, au Zambie, au Mozambique, au Congo-Kinshasa, en Tanzanie, en Éthiopie et au Soudan[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Namibie, au Botswana, au Zimbabwe, au Zambie, au Mozambique, au Congo-Kinshasa, en Tanzanie, en Éthiopie et au Soudan,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Damon variegatus est constitué, tout comme les autres arachnides, de deux parties principales, un abdomen et un céphalothorax sur lequel sont fixées les pattes et les pédipalpes. On y retrouve trois paires de pattes ambulatoires et une paire de pattes dites antenniformes ou tactiles, qui permet à l'amblypyge de mieux se situer dans l'espace ou d'attirer une proie en la chatouillant pour l'amener droit vers les pédipalpes et ainsi facilité sa capture.
 Leur morphologie très aplatie leur permet de se glisser dans de petite fissures ou en tous cas dans des recoins inaccessible pour la majeure partie des animaux.
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Perty, 1834 : Arachnides Brasilienses. Delectus animalium articulatorum, quae in itinere per Brasiliam annis MDCCCXVIIMDCCCXX jussu et auspiciis Maximiliani Josephi I. Bavariae Regis Augustissimi peracto collegerunt dr. J. B. de Spix et dr. C. F. Ph. de Martius. Monachii, Munich, p. 191–209.</t>
         </is>
